--- a/module.xlsx
+++ b/module.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\UtilisationTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E2FF51-E643-4C8B-AF18-1EAFFA111293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F04EA8-504C-475E-AC32-34A528A8578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -454,6 +454,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1148,6 +1149,9 @@
       <c r="L22" s="16">
         <v>560.01</v>
       </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D23" s="40"/>
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="38" t="s">
